--- a/data/case1/9/P_device_6.xlsx
+++ b/data/case1/9/P_device_6.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.046076482506581334</v>
+        <v>-0.0324949512957039</v>
       </c>
       <c r="B1" s="0">
-        <v>0.046076482346451196</v>
+        <v>0.032494951036158966</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.024145136625123291</v>
+        <v>0.039459575608928654</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.024145136797479837</v>
+        <v>-0.039459575888081022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.063541264944316875</v>
+        <v>-0.045257629914363662</v>
       </c>
       <c r="B3" s="0">
-        <v>0.063541264776136447</v>
+        <v>0.045257629637817445</v>
       </c>
     </row>
   </sheetData>
